--- a/XAIRE/MethodComparison.xlsx
+++ b/XAIRE/MethodComparison.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\0ByQK1hrDNELqOFpYNU9IYndKWFE\InvestigaciónCompartida\CHJ\RevistaArtificialIntelligenceinMedicine\Cuarto_envio\Archivos a enviar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\InvestigaciónCompartida\CHJ\RevistaArtificialIntelligenceinMedicine\Cuarto_envio\Archivos a enviar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADBC7AC-2ED7-4EF6-A3CB-D286B6140D07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78613C31-371A-489D-ADB1-65646DA9F9AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="9390" xr2:uid="{78B68F5F-D3DE-44D8-A252-BDD7C618683F}"/>
   </bookViews>
@@ -90,21 +90,9 @@
     <t>Cupress 0</t>
   </si>
   <si>
-    <t>max_O3 -2</t>
-  </si>
-  <si>
-    <t>max_NO2 -13</t>
-  </si>
-  <si>
-    <t>Mes Hor 0</t>
-  </si>
-  <si>
     <t>Platanus -2</t>
   </si>
   <si>
-    <t>max_NO2 -12</t>
-  </si>
-  <si>
     <t>TempMax -12</t>
   </si>
   <si>
@@ -120,12 +108,6 @@
     <t>TempMax -8</t>
   </si>
   <si>
-    <t>max_CO -13</t>
-  </si>
-  <si>
-    <t>max_O3 -7</t>
-  </si>
-  <si>
     <t>TempMin -2</t>
   </si>
   <si>
@@ -135,18 +117,6 @@
     <t>TempMax -3</t>
   </si>
   <si>
-    <t>max_NO2 -6</t>
-  </si>
-  <si>
-    <t>max_O3 -13</t>
-  </si>
-  <si>
-    <t>max_O3 -10</t>
-  </si>
-  <si>
-    <t>max_CO -12</t>
-  </si>
-  <si>
     <t>TempMax -7</t>
   </si>
   <si>
@@ -156,117 +126,36 @@
     <t>TempMin -4</t>
   </si>
   <si>
-    <t>max_O3 -9</t>
-  </si>
-  <si>
     <t>TempMax -4</t>
   </si>
   <si>
     <t>TempMin 0</t>
   </si>
   <si>
-    <t>max_O3 0</t>
-  </si>
-  <si>
-    <t>max_O3 -5</t>
-  </si>
-  <si>
-    <t>max_NO2 -5</t>
-  </si>
-  <si>
-    <t>max_O3 -12</t>
-  </si>
-  <si>
     <t>TempMax -1</t>
   </si>
   <si>
-    <t>max_O3 -1</t>
-  </si>
-  <si>
-    <t>max_CO -3</t>
-  </si>
-  <si>
     <t>TempMax -2</t>
   </si>
   <si>
-    <t>max_CO 0</t>
-  </si>
-  <si>
-    <t>max_O3 -4</t>
-  </si>
-  <si>
-    <t>max_O3 -6</t>
-  </si>
-  <si>
-    <t>max_CO -5</t>
-  </si>
-  <si>
     <t>TempMin -1</t>
   </si>
   <si>
     <t>Urticaceae 0</t>
   </si>
   <si>
-    <t>max_CO -10</t>
-  </si>
-  <si>
-    <t>max_O3 -8</t>
-  </si>
-  <si>
-    <t>max_CO -4</t>
-  </si>
-  <si>
-    <t>max_CO -2</t>
-  </si>
-  <si>
-    <t>max_O3 -11</t>
-  </si>
-  <si>
-    <t>max_CO -6</t>
-  </si>
-  <si>
-    <t>max_CO -1</t>
-  </si>
-  <si>
-    <t>max_CO -11</t>
-  </si>
-  <si>
     <t>Urticaceae -3</t>
   </si>
   <si>
-    <t>max_CO -9</t>
-  </si>
-  <si>
-    <t>max_CO -7</t>
-  </si>
-  <si>
-    <t>max_CO -8</t>
-  </si>
-  <si>
-    <t>max_O3 -3</t>
-  </si>
-  <si>
     <t>Olea -3</t>
   </si>
   <si>
-    <t>max_NO2 -8</t>
-  </si>
-  <si>
-    <t>max_PART 0</t>
-  </si>
-  <si>
     <t>Cupress -5</t>
   </si>
   <si>
-    <t>max_PART -1</t>
-  </si>
-  <si>
     <t>Urticaceae -1</t>
   </si>
   <si>
-    <t>max_PART -2</t>
-  </si>
-  <si>
     <t>Cupress -7</t>
   </si>
   <si>
@@ -279,30 +168,15 @@
     <t>Cupress -6</t>
   </si>
   <si>
-    <t>max_NO2 -1</t>
-  </si>
-  <si>
-    <t>max_PART -6</t>
-  </si>
-  <si>
     <t>Cupress -8</t>
   </si>
   <si>
-    <t>max_NO2 -11</t>
-  </si>
-  <si>
-    <t>max_PART -8</t>
-  </si>
-  <si>
     <t>Urticaceae -4</t>
   </si>
   <si>
     <t>Poaceae -1</t>
   </si>
   <si>
-    <t>max_NO2 -3</t>
-  </si>
-  <si>
     <t>Platanus -3</t>
   </si>
   <si>
@@ -312,9 +186,6 @@
     <t>Platanus 0</t>
   </si>
   <si>
-    <t>max_PART -11</t>
-  </si>
-  <si>
     <t>Platanus -10</t>
   </si>
   <si>
@@ -351,15 +222,9 @@
     <t>Platanus -4</t>
   </si>
   <si>
-    <t>max_PART -7</t>
-  </si>
-  <si>
     <t>Cupress -1</t>
   </si>
   <si>
-    <t>max_PART -5</t>
-  </si>
-  <si>
     <t>Urticaceae -11</t>
   </si>
   <si>
@@ -378,9 +243,6 @@
     <t>Plantago -8</t>
   </si>
   <si>
-    <t>max_NO2 -2</t>
-  </si>
-  <si>
     <t>Urticaceae -13</t>
   </si>
   <si>
@@ -390,18 +252,9 @@
     <t>Platanus -5</t>
   </si>
   <si>
-    <t>max_NO2 -4</t>
-  </si>
-  <si>
-    <t>max_NO2 -9</t>
-  </si>
-  <si>
     <t>Olea -7</t>
   </si>
   <si>
-    <t>max_PART -12</t>
-  </si>
-  <si>
     <t>Urticaceae -6</t>
   </si>
   <si>
@@ -414,9 +267,6 @@
     <t>Urticaceae -8</t>
   </si>
   <si>
-    <t>max_PART -3</t>
-  </si>
-  <si>
     <t>Poaceae -3</t>
   </si>
   <si>
@@ -429,12 +279,6 @@
     <t>Olea -9</t>
   </si>
   <si>
-    <t>max_PART -9</t>
-  </si>
-  <si>
-    <t>max_PART -10</t>
-  </si>
-  <si>
     <t>Poaceae -11</t>
   </si>
   <si>
@@ -447,9 +291,6 @@
     <t>Chenopo -13</t>
   </si>
   <si>
-    <t>max_NO2 -10</t>
-  </si>
-  <si>
     <t>Plantago -12</t>
   </si>
   <si>
@@ -462,9 +303,6 @@
     <t>Plantago -4</t>
   </si>
   <si>
-    <t>max_NO2 -7</t>
-  </si>
-  <si>
     <t>Olea -12</t>
   </si>
   <si>
@@ -474,9 +312,6 @@
     <t>Poaceae -6</t>
   </si>
   <si>
-    <t>max_PART -4</t>
-  </si>
-  <si>
     <t>Poaceae -10</t>
   </si>
   <si>
@@ -504,12 +339,6 @@
     <t>Chenopo -11</t>
   </si>
   <si>
-    <t>max_NO2 0</t>
-  </si>
-  <si>
-    <t>max_PART -13</t>
-  </si>
-  <si>
     <t>Plantago -11</t>
   </si>
   <si>
@@ -697,6 +526,177 @@
   </si>
   <si>
     <t>Saturday</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>O3Max -2</t>
+  </si>
+  <si>
+    <t>O3Max -7</t>
+  </si>
+  <si>
+    <t>O3Max -13</t>
+  </si>
+  <si>
+    <t>O3Max -10</t>
+  </si>
+  <si>
+    <t>O3Max -9</t>
+  </si>
+  <si>
+    <t>O3Max 0</t>
+  </si>
+  <si>
+    <t>O3Max -5</t>
+  </si>
+  <si>
+    <t>O3Max -12</t>
+  </si>
+  <si>
+    <t>O3Max -1</t>
+  </si>
+  <si>
+    <t>O3Max -4</t>
+  </si>
+  <si>
+    <t>O3Max -6</t>
+  </si>
+  <si>
+    <t>O3Max -11</t>
+  </si>
+  <si>
+    <t>O3Max -8</t>
+  </si>
+  <si>
+    <t>O3Max -3</t>
+  </si>
+  <si>
+    <t>NO2Max -13</t>
+  </si>
+  <si>
+    <t>NO2Max -12</t>
+  </si>
+  <si>
+    <t>NO2Max -4</t>
+  </si>
+  <si>
+    <t>NO2Max -5</t>
+  </si>
+  <si>
+    <t>NO2Max -6</t>
+  </si>
+  <si>
+    <t>NO2Max -8</t>
+  </si>
+  <si>
+    <t>NO2Max -7</t>
+  </si>
+  <si>
+    <t>NO2Max -1</t>
+  </si>
+  <si>
+    <t>NO2Max 0</t>
+  </si>
+  <si>
+    <t>NO2Max -10</t>
+  </si>
+  <si>
+    <t>NO2Max -3</t>
+  </si>
+  <si>
+    <t>NO2Max -11</t>
+  </si>
+  <si>
+    <t>NO2Max -9</t>
+  </si>
+  <si>
+    <t>NO2Max -2</t>
+  </si>
+  <si>
+    <t>COMax -6</t>
+  </si>
+  <si>
+    <t>COMax -13</t>
+  </si>
+  <si>
+    <t>COMax -11</t>
+  </si>
+  <si>
+    <t>COMax -10</t>
+  </si>
+  <si>
+    <t>COMax -1</t>
+  </si>
+  <si>
+    <t>COMax -12</t>
+  </si>
+  <si>
+    <t>COMax -3</t>
+  </si>
+  <si>
+    <t>COMax 0</t>
+  </si>
+  <si>
+    <t>COMax -5</t>
+  </si>
+  <si>
+    <t>COMax -4</t>
+  </si>
+  <si>
+    <t>COMax -2</t>
+  </si>
+  <si>
+    <t>COMax -9</t>
+  </si>
+  <si>
+    <t>COMax -8</t>
+  </si>
+  <si>
+    <t>COMax -7</t>
+  </si>
+  <si>
+    <t>PartMax 0</t>
+  </si>
+  <si>
+    <t>PartMax -11</t>
+  </si>
+  <si>
+    <t>PartMax -3</t>
+  </si>
+  <si>
+    <t>PartMax -4</t>
+  </si>
+  <si>
+    <t>PartMax -6</t>
+  </si>
+  <si>
+    <t>PartMax -8</t>
+  </si>
+  <si>
+    <t>PartMax -5</t>
+  </si>
+  <si>
+    <t>PartMax -13</t>
+  </si>
+  <si>
+    <t>PartMax -1</t>
+  </si>
+  <si>
+    <t>PartMax -12</t>
+  </si>
+  <si>
+    <t>PartMax -2</t>
+  </si>
+  <si>
+    <t>PartMax -7</t>
+  </si>
+  <si>
+    <t>PartMax -9</t>
+  </si>
+  <si>
+    <t>PartMax -10</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,47 +1180,47 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1228,13 +1228,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>-2</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="H3" s="8">
         <v>0.1183178471</v>
@@ -1258,13 +1258,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="C4" s="13">
         <v>2.5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>-3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="H4" s="8">
         <v>0.1179427421</v>
@@ -1288,13 +1288,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="C5" s="13">
         <v>3.4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>-31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="H5" s="8">
         <v>0.10095057039999999</v>
@@ -1318,13 +1318,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C6" s="13">
         <v>5.3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="H6" s="8">
         <v>9.1678052999999995E-2</v>
@@ -1348,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="C7" s="13">
         <v>5.6</v>
@@ -1363,7 +1363,7 @@
         <v>-1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="H7" s="8">
         <v>8.3794344399999998E-2</v>
@@ -1384,7 +1384,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="H8" s="8">
         <v>7.1358687200000007E-2</v>
@@ -1414,7 +1414,7 @@
         <v>12.4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="E9" s="8">
         <v>0.99999945800000001</v>
@@ -1423,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="H9" s="8">
         <v>5.2210094899999997E-2</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="H10" s="8">
         <v>2.07060248E-2</v>
@@ -1468,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="C11" s="13">
         <v>15.3</v>
@@ -1483,7 +1483,7 @@
         <v>-1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="H11" s="8">
         <v>1.9489129899999999E-2</v>
@@ -1504,7 +1504,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="E12" s="8">
         <v>0.99254468100000004</v>
@@ -1513,7 +1513,7 @@
         <v>-5</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="H12" s="8">
         <v>1.7701589199999999E-2</v>
@@ -1534,7 +1534,7 @@
         <v>21.7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="E13" s="8">
         <v>0.992542009</v>
@@ -1543,7 +1543,7 @@
         <v>-85</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="H13" s="8">
         <v>1.49358906E-2</v>
@@ -1564,7 +1564,7 @@
         <v>23.1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="E14" s="8">
         <v>0.99245049600000002</v>
@@ -1573,7 +1573,7 @@
         <v>-12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="H14" s="8">
         <v>1.22921669E-2</v>
@@ -1594,7 +1594,7 @@
         <v>23.2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="E15" s="8">
         <v>0.56375987000000005</v>
@@ -1603,7 +1603,7 @@
         <v>-8</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="H15" s="8">
         <v>1.0461546299999999E-2</v>
@@ -1618,7 +1618,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C16" s="13">
         <v>26.5</v>
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="H16" s="8">
         <v>1.0326681799999999E-2</v>
@@ -1648,7 +1648,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="C17" s="13">
         <v>27.5</v>
@@ -1663,7 +1663,7 @@
         <v>-96</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="H17" s="8">
         <v>9.6336792999999997E-3</v>
@@ -1678,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="C18" s="13">
         <v>27.6</v>
@@ -1693,7 +1693,7 @@
         <v>-85</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="H18" s="8">
         <v>6.2815286999999996E-3</v>
@@ -1723,7 +1723,7 @@
         <v>-58</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="H19" s="8">
         <v>5.4883759000000001E-3</v>
@@ -1738,13 +1738,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="C20" s="13">
         <v>28.7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="E20" s="9">
         <v>4.6848374382950599E-9</v>
@@ -1753,7 +1753,7 @@
         <v>-10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="H20" s="8">
         <v>4.5451010999999998E-3</v>
@@ -1783,7 +1783,7 @@
         <v>-97</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="H21" s="8">
         <v>4.2621648E-3</v>
@@ -1798,7 +1798,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="C22" s="13">
         <v>30.5</v>
@@ -1813,7 +1813,7 @@
         <v>-11</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="H22" s="8">
         <v>3.9777166000000003E-3</v>
@@ -1828,13 +1828,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="C23" s="13">
         <v>30.7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="E23" s="9">
         <v>7.6762601606080998E-14</v>
@@ -1843,7 +1843,7 @@
         <v>-6</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="H23" s="8">
         <v>3.8905207E-3</v>
@@ -1864,7 +1864,7 @@
         <v>32.5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="E24" s="9">
         <v>3.0414310722661598E-20</v>
@@ -1888,7 +1888,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="C25" s="13">
         <v>32.9</v>
@@ -1918,7 +1918,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="C26" s="7">
         <v>33</v>
@@ -1954,7 +1954,7 @@
         <v>36.200000000000003</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="E27" s="9">
         <v>1.7762838816771102E-24</v>
@@ -1963,7 +1963,7 @@
         <v>-109</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="H27" s="8">
         <v>3.1767665999999999E-3</v>
@@ -1978,13 +1978,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="C28" s="13">
         <v>36.799999999999997</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="E28" s="9">
         <v>1.7762838816771102E-24</v>
@@ -1993,7 +1993,7 @@
         <v>-128</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="H28" s="8">
         <v>3.1589767999999998E-3</v>
@@ -2008,7 +2008,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="C29" s="13">
         <v>39.9</v>
@@ -2038,7 +2038,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="C30" s="13">
         <v>42.1</v>
@@ -2068,7 +2068,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="C31" s="13">
         <v>43.4</v>
@@ -2083,7 +2083,7 @@
         <v>-86</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H31" s="8">
         <v>2.8359090000000002E-3</v>
@@ -2098,13 +2098,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C32" s="7">
         <v>43.9</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="E32" s="9">
         <v>4.8873547280871498E-32</v>
@@ -2113,7 +2113,7 @@
         <v>-31</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="H32" s="8">
         <v>2.6820702E-3</v>
@@ -2134,7 +2134,7 @@
         <v>44.1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="E33" s="9">
         <v>4.8900000000000002E-18</v>
@@ -2158,13 +2158,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C34" s="7">
         <v>46.3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E34" s="9">
         <v>2.69E-22</v>
@@ -2173,7 +2173,7 @@
         <v>-74</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="H34" s="8">
         <v>2.5787904999999998E-3</v>
@@ -2188,13 +2188,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C35" s="7">
         <v>46.4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="E35" s="9">
         <v>4.2099999999999998E-27</v>
@@ -2203,7 +2203,7 @@
         <v>-13</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="H35" s="6">
         <v>2.5648781000000001E-3</v>
@@ -2218,13 +2218,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="C36" s="7">
         <v>47.7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="E36" s="9">
         <v>4.2099999999999998E-27</v>
@@ -2233,7 +2233,7 @@
         <v>-170</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="H36" s="6">
         <v>2.5300193000000002E-3</v>
@@ -2248,13 +2248,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="C37" s="7">
         <v>48.8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="E37" s="9">
         <v>4.2099999999999998E-27</v>
@@ -2278,13 +2278,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>49.7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E38" s="9">
         <v>4.2099999999999998E-27</v>
@@ -2308,13 +2308,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C39" s="7">
         <v>50.4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E39" s="9">
         <v>1.0099999999999999E-31</v>
@@ -2323,7 +2323,7 @@
         <v>-100</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="H39" s="6">
         <v>2.4539628999999999E-3</v>
@@ -2338,13 +2338,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="C40" s="7">
         <v>50.9</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="E40" s="9">
         <v>1.0099999999999999E-31</v>
@@ -2353,7 +2353,7 @@
         <v>-50</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="H40" s="6">
         <v>2.4437895000000002E-3</v>
@@ -2368,13 +2368,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="C41" s="7">
         <v>51.2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E41" s="9">
         <v>3.5300000000000001E-42</v>
@@ -2398,13 +2398,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="C42" s="7">
         <v>53.2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E42" s="9">
         <v>3.5300000000000001E-42</v>
@@ -2413,7 +2413,7 @@
         <v>-88</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H42" s="6">
         <v>2.3927256999999999E-3</v>
@@ -2428,13 +2428,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="C43" s="7">
         <v>53.8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E43" s="9">
         <v>3.5300000000000001E-42</v>
@@ -2458,13 +2458,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C44" s="7">
         <v>53.8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="E44" s="9">
         <v>3.5300000000000001E-42</v>
@@ -2488,13 +2488,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="C45" s="7">
         <v>53.9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="E45" s="9">
         <v>3.5300000000000001E-42</v>
@@ -2503,7 +2503,7 @@
         <v>-14</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H45" s="6">
         <v>2.3129101000000001E-3</v>
@@ -2518,13 +2518,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="C46" s="7">
         <v>55.3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="E46" s="9">
         <v>3.5300000000000001E-42</v>
@@ -2533,7 +2533,7 @@
         <v>-80</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="H46" s="6">
         <v>2.2778743000000001E-3</v>
@@ -2548,13 +2548,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="C47" s="7">
         <v>56.7</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="E47" s="9">
         <v>1.64E-53</v>
@@ -2578,13 +2578,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="C48" s="7">
         <v>56.8</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E48" s="9">
         <v>1.64E-53</v>
@@ -2608,13 +2608,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C49" s="7">
         <v>57</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="E49" s="9">
         <v>1.64E-53</v>
@@ -2623,7 +2623,7 @@
         <v>-34</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H49" s="6">
         <v>2.1611410000000001E-3</v>
@@ -2638,13 +2638,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="C50" s="7">
         <v>59.2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E50" s="9">
         <v>1.64E-53</v>
@@ -2653,7 +2653,7 @@
         <v>-104</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="H50" s="6">
         <v>2.1559489999999999E-3</v>
@@ -2668,13 +2668,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="C51" s="7">
         <v>60.5</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="E51" s="9">
         <v>1.64E-53</v>
@@ -2683,7 +2683,7 @@
         <v>-19</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="H51" s="6">
         <v>2.1366086000000001E-3</v>
@@ -2698,13 +2698,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C52" s="7">
         <v>60.7</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="E52" s="9">
         <v>1.64E-53</v>
@@ -2713,7 +2713,7 @@
         <v>-111</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H52" s="6">
         <v>2.1361869999999999E-3</v>
@@ -2728,13 +2728,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="C53" s="7">
         <v>61.3</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="E53" s="9">
         <v>1.64E-53</v>
@@ -2743,7 +2743,7 @@
         <v>-131</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="H53" s="6">
         <v>2.0874589999999998E-3</v>
@@ -2758,13 +2758,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="C54" s="7">
         <v>61.3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E54" s="9">
         <v>1.64E-53</v>
@@ -2773,7 +2773,7 @@
         <v>-6</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="H54" s="6">
         <v>2.0796347000000001E-3</v>
@@ -2788,13 +2788,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="C55" s="7">
         <v>62.2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="E55" s="9">
         <v>3.2400000000000001E-61</v>
@@ -2803,7 +2803,7 @@
         <v>4</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="H55" s="6">
         <v>2.0642843000000001E-3</v>
@@ -2818,13 +2818,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="C56" s="7">
         <v>62.7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="E56" s="9">
         <v>3.2400000000000001E-61</v>
@@ -2833,7 +2833,7 @@
         <v>-33</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="H56" s="6">
         <v>2.0500014000000002E-3</v>
@@ -2848,13 +2848,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="C57" s="7">
         <v>63</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="E57" s="9">
         <v>3.2400000000000001E-61</v>
@@ -2863,7 +2863,7 @@
         <v>-123</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H57" s="6">
         <v>2.0327258999999999E-3</v>
@@ -2878,13 +2878,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C58" s="7">
         <v>63.6</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="E58" s="9">
         <v>3.2400000000000001E-61</v>
@@ -2893,7 +2893,7 @@
         <v>-56</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="H58" s="6">
         <v>2.0208031999999999E-3</v>
@@ -2908,13 +2908,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="C59" s="7">
         <v>64.8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="E59" s="9">
         <v>2.47E-62</v>
@@ -2923,7 +2923,7 @@
         <v>-118</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="H59" s="6">
         <v>1.9799491E-3</v>
@@ -2938,13 +2938,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C60" s="7">
         <v>65.900000000000006</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E60" s="9">
         <v>3.8800000000000002E-72</v>
@@ -2953,7 +2953,7 @@
         <v>-33</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H60" s="6">
         <v>1.9335137E-3</v>
@@ -2968,13 +2968,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="C61" s="7">
         <v>66.7</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="E61" s="9">
         <v>3.8800000000000002E-72</v>
@@ -2983,7 +2983,7 @@
         <v>-91</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H61" s="6">
         <v>1.9271424999999999E-3</v>
@@ -2998,13 +2998,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C62" s="7">
         <v>67.3</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="E62" s="9">
         <v>3.8800000000000002E-72</v>
@@ -3013,7 +3013,7 @@
         <v>-119</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="H62" s="6">
         <v>1.9182256E-3</v>
@@ -3028,13 +3028,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="C63" s="7">
         <v>67.599999999999994</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="E63" s="9">
         <v>3.8800000000000002E-72</v>
@@ -3043,7 +3043,7 @@
         <v>-145</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H63" s="6">
         <v>1.9073562000000001E-3</v>
@@ -3058,13 +3058,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="C64" s="7">
         <v>67.900000000000006</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="E64" s="9">
         <v>3.8800000000000002E-72</v>
@@ -3073,7 +3073,7 @@
         <v>-55</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H64" s="6">
         <v>1.9033449E-3</v>
@@ -3088,13 +3088,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="C65" s="7">
         <v>68.2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="E65" s="9">
         <v>1.32E-79</v>
@@ -3103,7 +3103,7 @@
         <v>-133</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H65" s="6">
         <v>1.8989428999999999E-3</v>
@@ -3118,13 +3118,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C66" s="7">
         <v>71.400000000000006</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="E66" s="9">
         <v>1.32E-79</v>
@@ -3133,7 +3133,7 @@
         <v>-110</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H66" s="6">
         <v>1.8939263999999999E-3</v>
@@ -3148,13 +3148,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C67" s="7">
         <v>71.7</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="E67" s="9">
         <v>1.32E-79</v>
@@ -3163,7 +3163,7 @@
         <v>-135</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="H67" s="6">
         <v>1.8783428999999999E-3</v>
@@ -3178,13 +3178,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="C68" s="7">
         <v>71.8</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="E68" s="9">
         <v>1.32E-79</v>
@@ -3193,7 +3193,7 @@
         <v>-32</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="H68" s="6">
         <v>1.8389028E-3</v>
@@ -3208,13 +3208,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="C69" s="7">
         <v>72.7</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="E69" s="9">
         <v>7.9699999999999995E-92</v>
@@ -3223,7 +3223,7 @@
         <v>-80</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="H69" s="6">
         <v>1.8363214000000001E-3</v>
@@ -3238,13 +3238,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="C70" s="7">
         <v>73.099999999999994</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="E70" s="9">
         <v>7.9699999999999995E-92</v>
@@ -3253,7 +3253,7 @@
         <v>-148</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="H70" s="6">
         <v>1.8358935000000001E-3</v>
@@ -3268,13 +3268,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="C71" s="7">
         <v>73.900000000000006</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="E71" s="9">
         <v>7.9699999999999995E-92</v>
@@ -3283,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H71" s="6">
         <v>1.823273E-3</v>
@@ -3298,13 +3298,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C72" s="7">
         <v>74.099999999999994</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="E72" s="9">
         <v>7.9699999999999995E-92</v>
@@ -3313,7 +3313,7 @@
         <v>-1</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H72" s="6">
         <v>1.7892152000000001E-3</v>
@@ -3328,13 +3328,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="C73" s="7">
         <v>75.099999999999994</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="E73" s="9">
         <v>7.9699999999999995E-92</v>
@@ -3343,7 +3343,7 @@
         <v>16</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H73" s="6">
         <v>1.7557689000000001E-3</v>
@@ -3358,13 +3358,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="C74" s="7">
         <v>76.3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="E74" s="9">
         <v>7.9699999999999995E-92</v>
@@ -3373,7 +3373,7 @@
         <v>-68</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H74" s="6">
         <v>1.7130977E-3</v>
@@ -3388,13 +3388,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C75" s="7">
         <v>78.3</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E75" s="9">
         <v>7.9699999999999995E-92</v>
@@ -3403,7 +3403,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H75" s="6">
         <v>1.7063398999999999E-3</v>
@@ -3418,13 +3418,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="C76" s="7">
         <v>78.5</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E76" s="9">
         <v>1.25E-108</v>
@@ -3433,7 +3433,7 @@
         <v>-29</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="H76" s="6">
         <v>1.61126E-3</v>
@@ -3454,7 +3454,7 @@
         <v>78.7</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="E77" s="9">
         <v>1.25E-108</v>
@@ -3463,7 +3463,7 @@
         <v>-108</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="H77" s="6">
         <v>1.5006829E-3</v>
@@ -3478,13 +3478,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="C78" s="7">
         <v>79.8</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="E78" s="9">
         <v>1.25E-108</v>
@@ -3508,13 +3508,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="C79" s="7">
         <v>80.3</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E79" s="9">
         <v>1.25E-108</v>
@@ -3523,7 +3523,7 @@
         <v>-55</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="H79" s="6">
         <v>1.4531219E-3</v>
@@ -3538,13 +3538,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="C80" s="7">
         <v>80.7</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="E80" s="9">
         <v>1.25E-108</v>
@@ -3553,7 +3553,7 @@
         <v>16</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="H80" s="6">
         <v>1.386619E-3</v>
@@ -3568,13 +3568,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C81" s="7">
         <v>82.1</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="E81" s="9">
         <v>1.25E-108</v>
@@ -3583,7 +3583,7 @@
         <v>25</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="H81" s="6">
         <v>1.3799124E-3</v>
@@ -3598,13 +3598,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C82" s="7">
         <v>85.2</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="E82" s="9">
         <v>1.25E-108</v>
@@ -3613,7 +3613,7 @@
         <v>28</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="H82" s="6">
         <v>1.3524353E-3</v>
@@ -3628,13 +3628,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="C83" s="7">
         <v>88.8</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="E83" s="9">
         <v>1.25E-108</v>
@@ -3643,7 +3643,7 @@
         <v>-113</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="H83" s="6">
         <v>1.3343507E-3</v>
@@ -3658,7 +3658,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="C84" s="7">
         <v>89</v>
@@ -3673,7 +3673,7 @@
         <v>69</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H84" s="6">
         <v>1.2663002E-3</v>
@@ -3688,13 +3688,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="C85" s="7">
         <v>93</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="E85" s="9">
         <v>1.68E-119</v>
@@ -3703,7 +3703,7 @@
         <v>-77</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="H85" s="6">
         <v>1.2501465999999999E-3</v>
@@ -3718,13 +3718,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="C86" s="7">
         <v>93.7</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="E86" s="9">
         <v>1.68E-119</v>
@@ -3733,7 +3733,7 @@
         <v>-100</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="H86" s="6">
         <v>1.2398144E-3</v>
@@ -3748,13 +3748,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="C87" s="7">
         <v>93.8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="E87" s="9">
         <v>1.68E-119</v>
@@ -3763,7 +3763,7 @@
         <v>-116</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="H87" s="6">
         <v>1.2376351E-3</v>
@@ -3778,13 +3778,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="C88" s="7">
         <v>94</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="E88" s="9">
         <v>1.68E-119</v>
@@ -3808,13 +3808,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="C89" s="7">
         <v>94.1</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E89" s="9">
         <v>1.68E-119</v>
@@ -3823,7 +3823,7 @@
         <v>-46</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="H89" s="6">
         <v>1.1865548000000001E-3</v>
@@ -3838,13 +3838,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="C90" s="7">
         <v>94.6</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="E90" s="9">
         <v>9.3299999999999997E-125</v>
@@ -3853,7 +3853,7 @@
         <v>-114</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="H90" s="6">
         <v>1.1762622E-3</v>
@@ -3868,13 +3868,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C91" s="7">
         <v>95.9</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="E91" s="9">
         <v>9.3299999999999997E-125</v>
@@ -3883,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="H91" s="6">
         <v>1.1681504999999999E-3</v>
@@ -3898,13 +3898,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="C92" s="7">
         <v>97.3</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="E92" s="9">
         <v>9.3299999999999997E-125</v>
@@ -3913,7 +3913,7 @@
         <v>-3</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="H92" s="6">
         <v>1.1351879E-3</v>
@@ -3928,13 +3928,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C93" s="7">
         <v>99.1</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="E93" s="9">
         <v>9.3299999999999997E-125</v>
@@ -3943,7 +3943,7 @@
         <v>-65</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="H93" s="6">
         <v>1.0975131999999999E-3</v>
@@ -3958,13 +3958,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="C94" s="7">
         <v>100.2</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="E94" s="9">
         <v>3.1100000000000001E-130</v>
@@ -3973,7 +3973,7 @@
         <v>-76</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="H94" s="6">
         <v>1.0974374000000001E-3</v>
@@ -3988,13 +3988,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="C95" s="7">
         <v>102.3</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="E95" s="9">
         <v>3.1100000000000001E-130</v>
@@ -4003,7 +4003,7 @@
         <v>-110</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H95" s="6">
         <v>1.0896543999999999E-3</v>
@@ -4018,13 +4018,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="C96" s="7">
         <v>102.5</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="E96" s="9">
         <v>3.1100000000000001E-130</v>
@@ -4033,7 +4033,7 @@
         <v>43</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="H96" s="6">
         <v>1.0775693999999999E-3</v>
@@ -4048,13 +4048,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C97" s="7">
         <v>106.4</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="E97" s="9">
         <v>2.1700000000000001E-140</v>
@@ -4063,7 +4063,7 @@
         <v>-91</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="H97" s="6">
         <v>1.0697720999999999E-3</v>
@@ -4078,13 +4078,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C98" s="7">
         <v>109</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="E98" s="9">
         <v>2.1700000000000001E-140</v>
@@ -4093,7 +4093,7 @@
         <v>-67</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="H98" s="6">
         <v>1.0603209999999999E-3</v>
@@ -4114,7 +4114,7 @@
         <v>109.4</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="E99" s="9">
         <v>2.1700000000000001E-140</v>
@@ -4123,7 +4123,7 @@
         <v>-47</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="H99" s="6">
         <v>1.0581493999999999E-3</v>
@@ -4138,13 +4138,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C100" s="7">
         <v>109.6</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="E100" s="9">
         <v>2.1700000000000001E-140</v>
@@ -4153,7 +4153,7 @@
         <v>16</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="H100" s="6">
         <v>1.0395455E-3</v>
@@ -4168,13 +4168,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="C101" s="7">
         <v>111.1</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="E101" s="9">
         <v>2.1700000000000001E-140</v>
@@ -4183,7 +4183,7 @@
         <v>25</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="H101" s="6">
         <v>1.0356541E-3</v>
@@ -4198,13 +4198,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C102" s="7">
         <v>111.6</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="E102" s="9">
         <v>2.1700000000000001E-140</v>
@@ -4213,7 +4213,7 @@
         <v>17</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="H102" s="6">
         <v>1.0239064999999999E-3</v>
@@ -4234,7 +4234,7 @@
         <v>112</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="E103" s="9">
         <v>2.3099999999999999E-149</v>
@@ -4243,7 +4243,7 @@
         <v>-75</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="H103" s="6">
         <v>1.0204617999999999E-3</v>
@@ -4258,13 +4258,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="C104" s="7">
         <v>113.1</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="E104" s="9">
         <v>2.3099999999999999E-149</v>
@@ -4273,7 +4273,7 @@
         <v>-107</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H104" s="6">
         <v>1.0151038999999999E-3</v>
@@ -4288,13 +4288,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C105" s="7">
         <v>113.2</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E105" s="9">
         <v>2.3099999999999999E-149</v>
@@ -4318,13 +4318,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="C106" s="7">
         <v>114.4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="E106" s="9">
         <v>2.3099999999999999E-149</v>
@@ -4348,13 +4348,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="C107" s="7">
         <v>116</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="E107" s="9">
         <v>2.3099999999999999E-149</v>
@@ -4363,7 +4363,7 @@
         <v>-67</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="H107" s="6">
         <v>9.7215430000000002E-4</v>
@@ -4378,13 +4378,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C108" s="7">
         <v>118</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="E108" s="9">
         <v>1.28E-163</v>
@@ -4393,7 +4393,7 @@
         <v>-74</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="H108" s="6">
         <v>9.673819E-4</v>
@@ -4408,13 +4408,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C109" s="7">
         <v>118.6</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="E109" s="9">
         <v>1.28E-163</v>
@@ -4423,7 +4423,7 @@
         <v>-34</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="H109" s="6">
         <v>9.6379199999999999E-4</v>
@@ -4438,13 +4438,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C110" s="7">
         <v>118.7</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E110" s="9">
         <v>1.28E-163</v>
@@ -4453,7 +4453,7 @@
         <v>-54</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="H110" s="6">
         <v>9.5542489999999995E-4</v>
@@ -4468,13 +4468,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C111" s="7">
         <v>119.3</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="E111" s="9">
         <v>1.28E-163</v>
@@ -4498,13 +4498,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="C112" s="7">
         <v>119.6</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E112" s="9">
         <v>1.28E-163</v>
@@ -4513,7 +4513,7 @@
         <v>-15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="H112" s="6">
         <v>9.5012350000000005E-4</v>
@@ -4534,7 +4534,7 @@
         <v>120.1</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="E113" s="9">
         <v>1.28E-163</v>
@@ -4558,13 +4558,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="C114" s="7">
         <v>121.7</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="E114" s="9">
         <v>1.28E-163</v>
@@ -4573,7 +4573,7 @@
         <v>36</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="H114" s="6">
         <v>9.3062349999999995E-4</v>
@@ -4588,13 +4588,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C115" s="7">
         <v>122.1</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="E115" s="9">
         <v>1.28E-163</v>
@@ -4618,13 +4618,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="C116" s="7">
         <v>122.8</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="E116" s="9">
         <v>7.5799999999999999E-170</v>
@@ -4633,7 +4633,7 @@
         <v>-100</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="H116" s="6">
         <v>9.1272900000000004E-4</v>
@@ -4654,7 +4654,7 @@
         <v>123.1</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="E117" s="9">
         <v>7.5799999999999999E-170</v>
@@ -4663,7 +4663,7 @@
         <v>-90</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="H117" s="6">
         <v>9.0660600000000001E-4</v>
@@ -4684,7 +4684,7 @@
         <v>124.3</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="E118" s="9">
         <v>7.5799999999999999E-170</v>
@@ -4693,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="H118" s="6">
         <v>9.0650059999999996E-4</v>
@@ -4708,7 +4708,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="C119" s="7">
         <v>124.4</v>
@@ -4723,7 +4723,7 @@
         <v>92</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="H119" s="6">
         <v>8.9883270000000004E-4</v>
@@ -4738,13 +4738,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C120" s="7">
         <v>125.2</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="E120" s="9">
         <v>7.5799999999999999E-170</v>
@@ -4753,7 +4753,7 @@
         <v>59</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="H120" s="6">
         <v>8.9371199999999996E-4</v>
@@ -4768,13 +4768,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C121" s="7">
         <v>127.2</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="E121" s="9">
         <v>2.1300000000000001E-183</v>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="H121" s="6">
         <v>8.8945820000000005E-4</v>
@@ -4798,13 +4798,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="C122" s="7">
         <v>127.4</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E122" s="9">
         <v>2.1300000000000001E-183</v>
@@ -4813,7 +4813,7 @@
         <v>-2</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H122" s="6">
         <v>8.8920950000000003E-4</v>
@@ -4828,13 +4828,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C123" s="7">
         <v>127.6</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E123" s="9">
         <v>2.1300000000000001E-183</v>
@@ -4843,7 +4843,7 @@
         <v>-67</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="H123" s="6">
         <v>8.7967449999999995E-4</v>
@@ -4858,13 +4858,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C124" s="7">
         <v>127.6</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="E124" s="9">
         <v>2.1300000000000001E-183</v>
@@ -4873,7 +4873,7 @@
         <v>81</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="H124" s="6">
         <v>8.5261169999999999E-4</v>
@@ -4888,13 +4888,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C125" s="7">
         <v>128.69999999999999</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="E125" s="9">
         <v>2.1300000000000001E-183</v>
@@ -4903,7 +4903,7 @@
         <v>38</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="H125" s="6">
         <v>8.4826279999999997E-4</v>
@@ -4918,13 +4918,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="C126" s="7">
         <v>129.6</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="E126" s="9">
         <v>2.1300000000000001E-183</v>
@@ -4933,7 +4933,7 @@
         <v>32</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="H126" s="6">
         <v>8.3918600000000001E-4</v>
@@ -4948,7 +4948,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C127" s="7">
         <v>129.6</v>
@@ -4963,7 +4963,7 @@
         <v>108</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="H127" s="6">
         <v>8.3317310000000002E-4</v>
@@ -4978,13 +4978,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C128" s="7">
         <v>129.9</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E128" s="9">
         <v>2.1300000000000001E-183</v>
@@ -4993,7 +4993,7 @@
         <v>79</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="H128" s="6">
         <v>8.1597319999999996E-4</v>
@@ -5008,13 +5008,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="C129" s="7">
         <v>130.30000000000001</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="E129" s="9">
         <v>1.54E-196</v>
@@ -5023,7 +5023,7 @@
         <v>-9</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="H129" s="6">
         <v>7.6773270000000005E-4</v>
@@ -5038,13 +5038,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C130" s="7">
         <v>130.80000000000001</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="E130" s="9">
         <v>1.54E-196</v>
@@ -5053,7 +5053,7 @@
         <v>-62</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="H130" s="6">
         <v>7.5446339999999995E-4</v>
@@ -5068,13 +5068,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C131" s="7">
         <v>131.6</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="E131" s="9">
         <v>1.54E-196</v>
@@ -5083,7 +5083,7 @@
         <v>-40</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="H131" s="6">
         <v>7.3920799999999999E-4</v>
@@ -5098,13 +5098,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C132" s="7">
         <v>132.1</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="E132" s="9">
         <v>1.54E-196</v>
@@ -5113,7 +5113,7 @@
         <v>16</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="H132" s="6">
         <v>7.1734749999999997E-4</v>
@@ -5128,13 +5128,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C133" s="7">
         <v>132.5</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E133" s="9">
         <v>1.54E-196</v>
@@ -5143,7 +5143,7 @@
         <v>66</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H133" s="6">
         <v>7.0941690000000002E-4</v>
@@ -5158,7 +5158,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C134" s="7">
         <v>133.9</v>
@@ -5173,7 +5173,7 @@
         <v>120</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="H134" s="6">
         <v>6.933404E-4</v>
@@ -5188,13 +5188,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C135" s="7">
         <v>134.5</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E135" s="9">
         <v>1.54E-196</v>
@@ -5203,7 +5203,7 @@
         <v>94</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="H135" s="6">
         <v>6.8215699999999997E-4</v>
@@ -5218,13 +5218,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="C136" s="7">
         <v>135.30000000000001</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="E136" s="9">
         <v>1.54E-196</v>
@@ -5233,7 +5233,7 @@
         <v>120</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H136" s="6">
         <v>6.6905679999999996E-4</v>
@@ -5248,13 +5248,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C137" s="7">
         <v>135.4</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="E137" s="9">
         <v>9.5400000000000002E-202</v>
@@ -5263,7 +5263,7 @@
         <v>-75</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="H137" s="6">
         <v>6.6720199999999999E-4</v>
@@ -5278,13 +5278,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C138" s="7">
         <v>135.4</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="E138" s="9">
         <v>9.5400000000000002E-202</v>
@@ -5293,7 +5293,7 @@
         <v>-56</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="H138" s="6">
         <v>6.6342080000000002E-4</v>
@@ -5308,13 +5308,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C139" s="7">
         <v>135.9</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E139" s="9">
         <v>9.5400000000000002E-202</v>
@@ -5323,7 +5323,7 @@
         <v>28</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="H139" s="6">
         <v>6.5775250000000001E-4</v>
@@ -5338,13 +5338,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="C140" s="7">
         <v>137.80000000000001</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="E140" s="9">
         <v>3.8800000000000001E-218</v>
@@ -5353,7 +5353,7 @@
         <v>103</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="H140" s="6">
         <v>6.5678429999999999E-4</v>
@@ -5368,13 +5368,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C141" s="7">
         <v>137.80000000000001</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E141" s="9">
         <v>3.8800000000000001E-218</v>
@@ -5383,7 +5383,7 @@
         <v>96</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="H141" s="6">
         <v>6.488962E-4</v>
@@ -5398,13 +5398,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="C142" s="7">
         <v>138.6</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E142" s="9">
         <v>3.8800000000000001E-218</v>
@@ -5413,7 +5413,7 @@
         <v>60</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="H142" s="6">
         <v>6.4705130000000004E-4</v>
@@ -5428,13 +5428,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C143" s="7">
         <v>140.6</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="E143" s="9">
         <v>3.8800000000000001E-218</v>
@@ -5443,7 +5443,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="H143" s="6">
         <v>6.4487859999999998E-4</v>
@@ -5458,13 +5458,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C144" s="7">
         <v>140.80000000000001</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E144" s="9">
         <v>3.8800000000000001E-218</v>
@@ -5473,7 +5473,7 @@
         <v>19</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="H144" s="6">
         <v>6.180882E-4</v>
@@ -5494,7 +5494,7 @@
         <v>143.19999999999999</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="E145" s="9">
         <v>3.8800000000000001E-218</v>
@@ -5503,7 +5503,7 @@
         <v>-8</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="H145" s="6">
         <v>6.1376270000000003E-4</v>
@@ -5518,13 +5518,13 @@
         <v>144</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C146" s="7">
         <v>143.9</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="E146" s="9">
         <v>3.8800000000000001E-218</v>
@@ -5533,7 +5533,7 @@
         <v>-11</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="H146" s="6">
         <v>6.0284189999999999E-4</v>
@@ -5548,13 +5548,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C147" s="7">
         <v>144</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="E147" s="9">
         <v>3.8800000000000001E-218</v>
@@ -5563,7 +5563,7 @@
         <v>16</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H147" s="6">
         <v>6.0114789999999999E-4</v>
@@ -5578,13 +5578,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C148" s="7">
         <v>144.30000000000001</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E148" s="9">
         <v>3.8800000000000001E-218</v>
@@ -5593,7 +5593,7 @@
         <v>52</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="H148" s="6">
         <v>6.0059879999999999E-4</v>
@@ -5608,13 +5608,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C149" s="7">
         <v>144.69999999999999</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="E149" s="9">
         <v>3.35E-225</v>
@@ -5623,7 +5623,7 @@
         <v>-11</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="H149" s="6">
         <v>5.9124700000000004E-4</v>
@@ -5638,13 +5638,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C150" s="7">
         <v>146.19999999999999</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="E150" s="9">
         <v>3.35E-225</v>
@@ -5653,7 +5653,7 @@
         <v>-43</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H150" s="6">
         <v>5.9097819999999999E-4</v>
@@ -5668,13 +5668,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C151" s="7">
         <v>146.30000000000001</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="E151" s="9">
         <v>3.35E-225</v>
@@ -5683,7 +5683,7 @@
         <v>-22</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="H151" s="6">
         <v>5.8699689999999998E-4</v>
@@ -5698,13 +5698,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C152" s="7">
         <v>146.80000000000001</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="E152" s="9">
         <v>3.35E-225</v>
@@ -5713,7 +5713,7 @@
         <v>81</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="H152" s="6">
         <v>5.8346009999999998E-4</v>
@@ -5728,13 +5728,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C153" s="7">
         <v>147.30000000000001</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E153" s="9">
         <v>3.35E-225</v>
@@ -5743,7 +5743,7 @@
         <v>101</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="H153" s="6">
         <v>5.8222320000000005E-4</v>
@@ -5758,13 +5758,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="C154" s="7">
         <v>147.4</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="E154" s="9">
         <v>2.6400000000000001E-233</v>
@@ -5773,7 +5773,7 @@
         <v>-25</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="H154" s="6">
         <v>5.7379410000000001E-4</v>
@@ -5788,13 +5788,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="C155" s="7">
         <v>147.4</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="E155" s="9">
         <v>2.6400000000000001E-233</v>
@@ -5803,7 +5803,7 @@
         <v>-44</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="H155" s="6">
         <v>5.6444709999999996E-4</v>
@@ -5818,13 +5818,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="C156" s="7">
         <v>147.5</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="E156" s="9">
         <v>2.6400000000000001E-233</v>
@@ -5833,7 +5833,7 @@
         <v>-63</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="H156" s="6">
         <v>5.6257829999999999E-4</v>
@@ -5848,13 +5848,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C157" s="7">
         <v>147.80000000000001</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="E157" s="9">
         <v>2.6400000000000001E-233</v>
@@ -5863,7 +5863,7 @@
         <v>-57</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="H157" s="6">
         <v>5.5857840000000003E-4</v>
@@ -5878,13 +5878,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="C158" s="7">
         <v>148.1</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E158" s="9">
         <v>2.6400000000000001E-233</v>
@@ -5893,7 +5893,7 @@
         <v>56</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="H158" s="6">
         <v>5.4327330000000004E-4</v>
@@ -5908,13 +5908,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C159" s="7">
         <v>148.1</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="E159" s="9">
         <v>9.3599999999999997E-243</v>
@@ -5923,7 +5923,7 @@
         <v>30</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="H159" s="6">
         <v>5.4115299999999995E-4</v>
@@ -5938,13 +5938,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C160" s="7">
         <v>148.4</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="E160" s="9">
         <v>9.3599999999999997E-243</v>
@@ -5953,7 +5953,7 @@
         <v>50</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="H160" s="6">
         <v>5.4079430000000003E-4</v>
@@ -5968,13 +5968,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C161" s="7">
         <v>148.6</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="E161" s="9">
         <v>9.3599999999999997E-243</v>
@@ -5983,7 +5983,7 @@
         <v>33</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H161" s="6">
         <v>5.3918620000000005E-4</v>
@@ -5998,7 +5998,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C162" s="7">
         <v>149.1</v>
@@ -6013,7 +6013,7 @@
         <v>141</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="H162" s="6">
         <v>5.3823369999999996E-4</v>
@@ -6028,13 +6028,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="C163" s="7">
         <v>149.30000000000001</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E163" s="9">
         <v>9.3599999999999997E-243</v>
@@ -6043,7 +6043,7 @@
         <v>88</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="H163" s="6">
         <v>5.3027900000000004E-4</v>
@@ -6058,13 +6058,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C164" s="7">
         <v>149.6</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="E164" s="9">
         <v>9.3599999999999997E-243</v>
@@ -6073,7 +6073,7 @@
         <v>142</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="H164" s="6">
         <v>5.2929729999999996E-4</v>
@@ -6088,13 +6088,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C165" s="7">
         <v>150.19999999999999</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="E165" s="9">
         <v>2.3500000000000002E-249</v>
@@ -6103,7 +6103,7 @@
         <v>-50</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="H165" s="6">
         <v>5.2928800000000005E-4</v>
@@ -6118,13 +6118,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="C166" s="7">
         <v>150.80000000000001</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="E166" s="9">
         <v>2.3500000000000002E-249</v>
@@ -6133,7 +6133,7 @@
         <v>-31</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="H166" s="6">
         <v>5.2627309999999999E-4</v>
@@ -6148,13 +6148,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="C167" s="7">
         <v>151</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E167" s="9">
         <v>2.3500000000000002E-249</v>
@@ -6178,13 +6178,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="C168" s="7">
         <v>151.1</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="E168" s="9">
         <v>2.3500000000000002E-249</v>
@@ -6193,7 +6193,7 @@
         <v>88</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="H168" s="6">
         <v>5.1282339999999995E-4</v>
@@ -6208,13 +6208,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="C169" s="7">
         <v>152.30000000000001</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="E169" s="9">
         <v>5.9299999999999995E-259</v>
@@ -6223,7 +6223,7 @@
         <v>122</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="H169" s="6">
         <v>5.0512349999999996E-4</v>
@@ -6238,13 +6238,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="C170" s="7">
         <v>153.1</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E170" s="9">
         <v>5.9299999999999995E-259</v>
@@ -6253,7 +6253,7 @@
         <v>11</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="H170" s="6">
         <v>5.0078920000000003E-4</v>
@@ -6268,13 +6268,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="C171" s="7">
         <v>153.4</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="E171" s="9">
         <v>5.9299999999999995E-259</v>
@@ -6283,7 +6283,7 @@
         <v>-29</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="H171" s="6">
         <v>4.9620630000000001E-4</v>
@@ -6298,13 +6298,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="C172" s="7">
         <v>153.5</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="E172" s="9">
         <v>5.9299999999999995E-259</v>
@@ -6313,7 +6313,7 @@
         <v>103</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H172" s="6">
         <v>4.86878E-4</v>
@@ -6328,13 +6328,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C173" s="7">
         <v>153.80000000000001</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="E173" s="9">
         <v>5.9299999999999995E-259</v>
@@ -6343,7 +6343,7 @@
         <v>-22</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="H173" s="6">
         <v>4.859776E-4</v>
@@ -6358,7 +6358,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C174" s="7">
         <v>154.1</v>
@@ -6373,7 +6373,7 @@
         <v>150</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="H174" s="6">
         <v>4.8239680000000001E-4</v>
@@ -6394,7 +6394,7 @@
         <v>154.4</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E175" s="9">
         <v>7.1199999999999999E-264</v>
@@ -6403,7 +6403,7 @@
         <v>52</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H175" s="6">
         <v>4.7660330000000002E-4</v>
@@ -6418,13 +6418,13 @@
         <v>174</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="C176" s="7">
         <v>155.19999999999999</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="E176" s="9">
         <v>7.1199999999999999E-264</v>
@@ -6433,7 +6433,7 @@
         <v>-15</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="H176" s="6">
         <v>4.6387179999999998E-4</v>
@@ -6448,13 +6448,13 @@
         <v>175</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="C177" s="7">
         <v>156</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E177" s="9">
         <v>7.1199999999999999E-264</v>
@@ -6463,7 +6463,7 @@
         <v>36</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="H177" s="6">
         <v>4.6246569999999998E-4</v>
@@ -6478,13 +6478,13 @@
         <v>176</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="C178" s="7">
         <v>156.4</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E178" s="9">
         <v>1.4100000000000001E-271</v>
@@ -6493,7 +6493,7 @@
         <v>87</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H178" s="6">
         <v>4.5813940000000001E-4</v>
@@ -6508,13 +6508,13 @@
         <v>177</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="C179" s="7">
         <v>158</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="E179" s="9">
         <v>1.4100000000000001E-271</v>
@@ -6523,7 +6523,7 @@
         <v>35</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="H179" s="6">
         <v>4.5755699999999998E-4</v>
@@ -6538,13 +6538,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="C180" s="7">
         <v>160.80000000000001</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="E180" s="9">
         <v>1.4100000000000001E-271</v>
@@ -6553,7 +6553,7 @@
         <v>138</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="H180" s="6">
         <v>4.5391000000000002E-4</v>
@@ -6568,13 +6568,13 @@
         <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C181" s="7">
         <v>162.30000000000001</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="E181" s="9">
         <v>1.4100000000000001E-271</v>
@@ -6583,7 +6583,7 @@
         <v>163</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="H181" s="6">
         <v>4.453921E-4</v>
@@ -6598,13 +6598,13 @@
         <v>180</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="C182" s="7">
         <v>162.30000000000001</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E182" s="9">
         <v>1.4100000000000001E-271</v>
@@ -6613,7 +6613,7 @@
         <v>157</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="H182" s="6">
         <v>4.3778250000000001E-4</v>
@@ -6628,13 +6628,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C183" s="7">
         <v>162.5</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="E183" s="9">
         <v>1.8999999999999999E-277</v>
@@ -6643,7 +6643,7 @@
         <v>17</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="H183" s="6">
         <v>4.3406260000000002E-4</v>
@@ -6658,13 +6658,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="C184" s="7">
         <v>163.1</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="E184" s="9">
         <v>1.8999999999999999E-277</v>
@@ -6673,7 +6673,7 @@
         <v>129</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="H184" s="6">
         <v>4.3130970000000002E-4</v>
@@ -6688,13 +6688,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="C185" s="7">
         <v>163.5</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E185" s="9">
         <v>1.9000000000000002E-276</v>
@@ -6703,7 +6703,7 @@
         <v>150</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="H185" s="6">
         <v>4.2553630000000001E-4</v>
@@ -6718,13 +6718,13 @@
         <v>184</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="C186" s="7">
         <v>165</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="E186" s="9">
         <v>2.9500000000000002E-280</v>
@@ -6733,7 +6733,7 @@
         <v>-27</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="H186" s="6">
         <v>4.2361249999999998E-4</v>
@@ -6748,13 +6748,13 @@
         <v>185</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="C187" s="7">
         <v>166.3</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E187" s="9">
         <v>2.9500000000000002E-280</v>
@@ -6763,7 +6763,7 @@
         <v>143</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="H187" s="6">
         <v>4.0748809999999999E-4</v>
@@ -6778,13 +6778,13 @@
         <v>186</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="C188" s="7">
         <v>167.8</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E188" s="9">
         <v>7.0000000000000004E-281</v>
@@ -6793,7 +6793,7 @@
         <v>116</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="H188" s="6">
         <v>4.0052510000000003E-4</v>
@@ -6808,7 +6808,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="C189" s="7">
         <v>168.5</v>
@@ -6823,7 +6823,7 @@
         <v>176</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="H189" s="6">
         <v>3.9946760000000002E-4</v>
@@ -6838,13 +6838,13 @@
         <v>188</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C190" s="7">
         <v>171.4</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="E190" s="9">
         <v>3.21E-282</v>
@@ -6853,7 +6853,7 @@
         <v>98</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="H190" s="6">
         <v>3.9621630000000001E-4</v>
@@ -6868,13 +6868,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="C191" s="7">
         <v>174.4</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="E191" s="9">
         <v>3.21E-282</v>
@@ -6883,7 +6883,7 @@
         <v>41</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="H191" s="6">
         <v>3.9410630000000002E-4</v>
@@ -6898,13 +6898,13 @@
         <v>190</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="C192" s="7">
         <v>175.3</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="E192" s="9">
         <v>3.21E-282</v>
@@ -6913,7 +6913,7 @@
         <v>127</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="H192" s="6">
         <v>3.8929749999999999E-4</v>
@@ -6928,13 +6928,13 @@
         <v>191</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="C193" s="7">
         <v>175.4</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="E193" s="9">
         <v>7.4100000000000004E-284</v>
@@ -6943,7 +6943,7 @@
         <v>24</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="H193" s="6">
         <v>3.886537E-4</v>
@@ -6958,13 +6958,13 @@
         <v>192</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="C194" s="7">
         <v>175.5</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="E194" s="9">
         <v>1.12E-285</v>
@@ -6973,7 +6973,7 @@
         <v>22</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="H194" s="6">
         <v>3.7650070000000001E-4</v>
@@ -6988,13 +6988,13 @@
         <v>193</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C195" s="7">
         <v>176.2</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E195" s="9">
         <v>1.12E-285</v>
@@ -7003,7 +7003,7 @@
         <v>34</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="H195" s="6">
         <v>3.7396629999999998E-4</v>
@@ -7018,13 +7018,13 @@
         <v>194</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C196" s="7">
         <v>176.7</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="E196" s="9">
         <v>1.12E-285</v>
@@ -7033,7 +7033,7 @@
         <v>168</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="H196" s="6">
         <v>3.7300339999999998E-4</v>
@@ -7048,13 +7048,13 @@
         <v>195</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="C197" s="7">
         <v>177.6</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="E197" s="9">
         <v>6.0300000000000004E-289</v>
@@ -7063,7 +7063,7 @@
         <v>10</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="H197" s="6">
         <v>3.701248E-4</v>
@@ -7078,13 +7078,13 @@
         <v>196</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="C198" s="7">
         <v>177.7</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="E198" s="9">
         <v>6.0300000000000004E-289</v>
@@ -7093,7 +7093,7 @@
         <v>124</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H198" s="6">
         <v>3.6391869999999999E-4</v>
@@ -7108,13 +7108,13 @@
         <v>197</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C199" s="7">
         <v>179.8</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="E199" s="9">
         <v>2.2500000000000001E-295</v>
@@ -7123,7 +7123,7 @@
         <v>51</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="H199" s="6">
         <v>3.633811E-4</v>
@@ -7138,13 +7138,13 @@
         <v>198</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="C200" s="7">
         <v>179.9</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="E200" s="9">
         <v>2.2500000000000001E-295</v>
@@ -7153,7 +7153,7 @@
         <v>-10</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="H200" s="6">
         <v>3.4789849999999998E-4</v>
@@ -7174,7 +7174,7 @@
         <v>180.2</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="E201" s="9">
         <v>2.2500000000000001E-295</v>
@@ -7183,7 +7183,7 @@
         <v>33</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="H201" s="6">
         <v>3.4345289999999999E-4</v>
@@ -7198,13 +7198,13 @@
         <v>200</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="C202" s="7">
         <v>180.3</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="E202" s="9">
         <v>2.2500000000000001E-295</v>
@@ -7213,7 +7213,7 @@
         <v>152</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="H202" s="6">
         <v>3.311473E-4</v>
@@ -7228,13 +7228,13 @@
         <v>201</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="C203" s="7">
         <v>181</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E203" s="9">
         <v>1.3599999999999999E-296</v>
@@ -7243,7 +7243,7 @@
         <v>122</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="H203" s="6">
         <v>3.3096200000000002E-4</v>
@@ -7258,13 +7258,13 @@
         <v>202</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="C204" s="7">
         <v>182.1</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="E204" s="9">
         <v>2.7900000000000001E-299</v>
@@ -7273,7 +7273,7 @@
         <v>100</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="H204" s="6">
         <v>3.3070579999999999E-4</v>
@@ -7288,13 +7288,13 @@
         <v>203</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="C205" s="7">
         <v>183.9</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="E205" s="9">
         <v>2.7900000000000001E-299</v>
@@ -7303,7 +7303,7 @@
         <v>159</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H205" s="6">
         <v>3.292112E-4</v>
@@ -7318,13 +7318,13 @@
         <v>204</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="C206" s="7">
         <v>184.7</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E206" s="9">
         <v>1.8599999999999999E-299</v>
@@ -7333,7 +7333,7 @@
         <v>59</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="H206" s="6">
         <v>3.276307E-4</v>
@@ -7348,13 +7348,13 @@
         <v>205</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="C207" s="7">
         <v>186.1</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="E207" s="9">
         <v>1.8599999999999999E-299</v>
@@ -7363,7 +7363,7 @@
         <v>95</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="H207" s="6">
         <v>3.2738549999999998E-4</v>
@@ -7378,13 +7378,13 @@
         <v>206</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C208" s="7">
         <v>186.4</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="E208" s="9">
         <v>6.0300000000000004E-303</v>
@@ -7393,7 +7393,7 @@
         <v>53</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="H208" s="6">
         <v>3.2444640000000002E-4</v>
@@ -7408,13 +7408,13 @@
         <v>207</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="C209" s="7">
         <v>186.6</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E209" s="9">
         <v>6.0300000000000004E-303</v>
@@ -7423,7 +7423,7 @@
         <v>171</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="H209" s="6">
         <v>3.2327069999999998E-4</v>
@@ -7438,13 +7438,13 @@
         <v>208</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C210" s="7">
         <v>187.4</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E210" s="9">
         <v>6.0300000000000004E-303</v>
@@ -7453,7 +7453,7 @@
         <v>152</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="H210" s="6">
         <v>3.2274670000000002E-4</v>
@@ -7468,13 +7468,13 @@
         <v>209</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="C211" s="7">
         <v>187.6</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="E211" s="9">
         <v>1.43E-304</v>
@@ -7483,7 +7483,7 @@
         <v>89</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="H211" s="6">
         <v>3.1946999999999998E-4</v>
@@ -7498,13 +7498,13 @@
         <v>210</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="C212" s="7">
         <v>187.8</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="E212" s="9">
         <v>1.1700000000000001E-307</v>
@@ -7513,7 +7513,7 @@
         <v>192</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="H212" s="6">
         <v>3.0538750000000002E-4</v>
@@ -7528,13 +7528,13 @@
         <v>211</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="C213" s="7">
         <v>189.6</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="E213" s="6">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>73</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="H213" s="6">
         <v>3.035235E-4</v>
@@ -7558,13 +7558,13 @@
         <v>212</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="C214" s="7">
         <v>191.1</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E214" s="6">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>180</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="H214" s="6">
         <v>2.9083229999999998E-4</v>
@@ -7588,13 +7588,13 @@
         <v>213</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="C215" s="7">
         <v>192.4</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E215" s="6">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>149</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="H215" s="6">
         <v>2.765709E-4</v>
@@ -7618,13 +7618,13 @@
         <v>214</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="C216" s="7">
         <v>193.2</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E216" s="6">
         <v>0</v>
@@ -7633,7 +7633,7 @@
         <v>177</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="H216" s="6">
         <v>2.6675970000000001E-4</v>
@@ -7648,13 +7648,13 @@
         <v>215</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="C217" s="7">
         <v>194.1</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E217" s="6">
         <v>0</v>
@@ -7663,7 +7663,7 @@
         <v>185</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="H217" s="6">
         <v>2.4863270000000001E-4</v>
@@ -7678,13 +7678,13 @@
         <v>216</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="C218" s="7">
         <v>194.8</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="E218" s="6">
         <v>0</v>
@@ -7693,7 +7693,7 @@
         <v>187</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="H218" s="6">
         <v>2.1839059999999999E-4</v>
@@ -7708,13 +7708,13 @@
         <v>217</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="C219" s="11">
         <v>197.4</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="E219" s="10">
         <v>0</v>
@@ -7723,7 +7723,7 @@
         <v>208</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="H219" s="10">
         <v>2.0670979999999999E-4</v>
